--- a/biology/Histoire de la zoologie et de la botanique/Juan_Eusebio_Nieremberg/Juan_Eusebio_Nieremberg.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Juan_Eusebio_Nieremberg/Juan_Eusebio_Nieremberg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Juan Eusebio Nieremberg y Otin, traditionnellement appelé en français Jean-Eusèbe de Nieremberg, né le 9 septembre 1595 à Madrid (Espagne) et y décédé le 2 avril 1658, était un prêtre jésuite espagnol, et naturaliste de renom.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Juan Eusebio Nieremberg naît à Madrid le 9 septembre 1595. Il est fils de Gottfried Nieremberg (originellement, « Niernberger ») et de Regina Ottin. Sa famille est originaire du Tyrol. Il entre dans la Compagnie de Jésus en 1614. Il est d’abord envoyé par ses supérieurs à Alcarria (dans la Nouvelle-Castille). Là, il découvre l’étude des animaux et des végétaux. Il est rappelé à Madrid où il enseigne l’histoire naturelle au séminaire. Il est atteint de paralysie en 1642.
 </t>
@@ -542,7 +556,9 @@
           <t>Écrivain mystique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son œuvre mystique est très estimée des dévots de son temps. Il fait paraître 51 ouvrages. Parmi ceux-ci, il faut en citer deux de 1630: De la afición y amor de Jesus et De la afición y amor de María, qui sont traduits en arabe, en français, en néerlandais, en allemand, en italien et en latin.
 Ces œuvres, ainsi que Prodigios del amor divino (1641), sont aujourd’hui tombées dans l'oubli, mais sa version, datée de 1656, de l’Imitation, ainsi que son traité sur l’éloquence sacrée, De la hermosura de Dios y su amabilidad (1649), sont souvent cités dans les ouvrages religieux espagnols.
@@ -576,7 +592,9 @@
           <t>Philosophe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'œuvre philosophique de Nieremberg est extrêmement éclectique, dans la mesure où il mêle la scolastique avec de l'alexandrisme, averroïsme, cabalisme, racines platoniciennes et stoïciennes. Il y a une part de néo-stoïcisme, avec l'idée d'une "sympathie de toutes les choses", via les logoi spermatikoi qui lient toute la matière. Il se rattache pour cela à Girolamo Fracastoro, qui avait aussi traité de la sympathie et de l'antipathie des choses (vieux principe d'Empédocle), ainsi que l'influence de la magie qui avait fasciné plusieurs auteurs de la Renaissance (Paracelse, Fracastoro, Cardan, Van Helmont), professant une croyance dans les forces occultes de la matière, idée que toute nature est vivante, y compris les astres. On retrouvera la spéculation jusque dans les monades de Leibniz, dotées de "forces actives", et c'est certainement l'une des inspirations qui avaient conduit Juan Caramuel à nier les formes substantielles.
 </t>
@@ -607,7 +625,9 @@
           <t>Naturaliste</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Il fait paraître une compilation sur l’histoire naturelle des Amériques et de l’Asie : In quibus rarissima Naturae arcana, etiam astronomica.... Georges Cuvier (1769-1832) le commente en ces termes :
 « On y remarque beaucoup de superstition et peu de critique ; l’auteur y entre dans des discussions métaphysiques, qui tiennent aux idées du moyen âge, dominantes encore à cette époque, surtout dans les collèges des jésuites. Néanmoins il y a des observations intéressantes sur les animaux et sur des plantes nouvelles. Ainsi, on y voit le sarigue, animal qui porte ses petits dans une poche ; le viscache, grand rongeur de la taille du lièvre, et qui est pourvu d'une queue longue comme celle d'un chat ; on y retrouve le coendou, espèce de porc-épic à queue prenante. […] Nieremberg n'a pas seulement pris les figures des auteurs manuscrits, il a encore emprunté celles de Clusius ; mais je soupçonne que la plupart de ses figures sont tirées des manuscrits d'Hernandez. »
